--- a/Coset_Sistema_Produccion/bin/Debug/maximos-mininos.xlsx
+++ b/Coset_Sistema_Produccion/bin/Debug/maximos-mininos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reyna\Documents\Visual Studio 2017\Projects\Coset_Sistema_Produccion\Coset_Sistema_Produccion\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{646C0FBB-B340-421A-A06B-8FFCA5D29C08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CED8E019-B25E-44B1-A041-9CD86C67252B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" xr2:uid="{54A01C2F-459D-4534-BFC5-4003BEA09AB2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{2052F4E3-FF04-432C-993A-4EED4B816A0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{2B572F9E-5293-4B5A-BEFF-5DB0CDB53279}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{5914DEC1-3BCB-4CED-B270-8067A1F46364}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -457,11 +457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226AD07D-B190-4CD7-BE8C-8F648E4E7764}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F98A7D0-957E-489E-8194-C4858483F1CD}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
